--- a/biology/Médecine/Trouble_de_la_lecture/Trouble_de_la_lecture.xlsx
+++ b/biology/Médecine/Trouble_de_la_lecture/Trouble_de_la_lecture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le trouble de la lecture[1] est chez un individu une difficulté à lire des mots et à comprendre des textes lus. Le trouble de la lecture peut participer à la dyslexie, à l'alexie ou à l'hyperlexie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le trouble de la lecture est chez un individu une difficulté à lire des mots et à comprendre des textes lus. Le trouble de la lecture peut participer à la dyslexie, à l'alexie ou à l'hyperlexie.
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dyslexie
-La dyslexie est un trouble des apprentissages qui se manifeste d'elle-même comme une difficulté à décoder, comprendre et à fluidifier la lecture. Elle se distingue des autres troubles de la lecture causés par des déficiences non-neurologiques comme celles de la vision ou de l'ouïe, voire un intérêt faible ou nul pour la lecture[2]. Il est estimé que la dyslexie affecte 5-17 % de la population[3],[4],[5], avec trois sous-types cognitifs : l'audition, la vue et l'attention[4],[6],[7],[8],[9]. Bien que ce ne soit pas un handicap intellectuel, elle est considérée comme à la fois un trouble des apprentissages[10],[11] et un trouble de la lecture[10],[12].
+          <t>Dyslexie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dyslexie est un trouble des apprentissages qui se manifeste d'elle-même comme une difficulté à décoder, comprendre et à fluidifier la lecture. Elle se distingue des autres troubles de la lecture causés par des déficiences non-neurologiques comme celles de la vision ou de l'ouïe, voire un intérêt faible ou nul pour la lecture. Il est estimé que la dyslexie affecte 5-17 % de la population avec trois sous-types cognitifs : l'audition, la vue et l'attention. Bien que ce ne soit pas un handicap intellectuel, elle est considérée comme à la fois un trouble des apprentissages, et un trouble de la lecture,.
 </t>
         </is>
       </c>
